--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Dropbox\Current\CS799\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57D1E3D-E905-4BF2-9B53-B1FECC402BB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7838EC19-2CC4-4397-8173-81CC024FB482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="4800" yWindow="1688" windowWidth="14400" windowHeight="7372" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,10 +724,10 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Dropbox\Current\CS799\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7838EC19-2CC4-4397-8173-81CC024FB482}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7722958-9469-4E38-B0E1-3CEBD471A254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="1688" windowWidth="14400" windowHeight="7372" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="5137" yWindow="1065" windowWidth="14400" windowHeight="7373" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -351,6 +351,18 @@
   </si>
   <si>
     <t>Yes?</t>
+  </si>
+  <si>
+    <t>http://papers.nips.cc/paper/2020-on-discriminative-vs-generative-classifiers-a-comparison-of-logistic-regression-and-naive-bayes.pdf</t>
+  </si>
+  <si>
+    <t>Discriminative vs Generative</t>
+  </si>
+  <si>
+    <t>Ng, Jordan</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -721,13 +733,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFB762-1C7C-4840-8FB5-CF7CC0836E07}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1417,6 +1429,44 @@
       </c>
       <c r="L18" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2002</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1438,6 +1488,7 @@
     <hyperlink ref="C16" r:id="rId15" xr:uid="{8200EDAC-9BB0-43F0-9A5E-D727B8B9AEBC}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{C28293C0-85A5-4B96-BF35-F99E12BCAF89}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{F687DACA-E137-4C0C-891A-9B065EDD3F16}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{CA647AB7-6B17-463F-B488-33D6F6D12111}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Dropbox\Current\CS799\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7722958-9469-4E38-B0E1-3CEBD471A254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF408D9E-5F3B-44A7-AEC6-E49BF2CF633A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5137" yWindow="1065" windowWidth="14400" windowHeight="7373" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="9600" yWindow="1103" windowWidth="9600" windowHeight="7365" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
   <si>
     <t>Name</t>
   </si>
@@ -363,6 +363,72 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Causal Strategic Linear Regression</t>
+  </si>
+  <si>
+    <t>https://proceedings.icml.cc/static/paper_files/icml/2020/5468-Paper.pdf</t>
+  </si>
+  <si>
+    <t>Shavit, Edelman, Axelrod</t>
+  </si>
+  <si>
+    <t>Classifiers Induce Invest Effort Strategically</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1807.05307.pdf</t>
+  </si>
+  <si>
+    <t>Kleinberg, Raghavan</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>Strategic Noise in Linear Regression</t>
+  </si>
+  <si>
+    <t>http://www.cs.toronto.edu/~nisarg/papers/equilibria_linreg.pdf</t>
+  </si>
+  <si>
+    <t>Hossain, Shah</t>
+  </si>
+  <si>
+    <t>Lp Norm Minimization</t>
+  </si>
+  <si>
+    <t>Learning Strategy-Aware Linear Classifiers</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1911.04004.pdf</t>
+  </si>
+  <si>
+    <t>Regret minimization</t>
+  </si>
+  <si>
+    <t>Incentive-Aware PAC Learning</t>
+  </si>
+  <si>
+    <t>https://users.cs.duke.edu/~hrzhang/papers/incentive-aware_learning.pdf</t>
+  </si>
+  <si>
+    <t>Zhang, Conitzer</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Classification with Strategically Withheld Data</t>
+  </si>
+  <si>
+    <t>https://gradanovic.github.io/incentives_in_ML_icml2020_ws/papers/IML2020_paper_13.pdf</t>
+  </si>
+  <si>
+    <t>Krishnaswamy, Li, Rein, Zhang, Conitzer</t>
+  </si>
+  <si>
+    <t>Mincut, Hill-Climbing</t>
   </si>
 </sst>
 </file>
@@ -733,13 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFB762-1C7C-4840-8FB5-CF7CC0836E07}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1467,6 +1533,234 @@
       </c>
       <c r="L19" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1489,6 +1783,12 @@
     <hyperlink ref="C17" r:id="rId16" xr:uid="{C28293C0-85A5-4B96-BF35-F99E12BCAF89}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{F687DACA-E137-4C0C-891A-9B065EDD3F16}"/>
     <hyperlink ref="C19" r:id="rId18" xr:uid="{CA647AB7-6B17-463F-B488-33D6F6D12111}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{67360E56-83A8-4864-84A5-151F88C516B8}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{7E8AF9D7-AD35-4331-AE2F-51D71A7F6F40}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{73A47D9C-0EF0-4581-8D04-B749C854956E}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{97D1F830-BC9D-419D-9560-C1D2F96EF243}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{ABBF34A3-458D-4698-B0EA-7D57E866480C}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{E27BA07E-6551-4979-85CE-6AA36441290B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF408D9E-5F3B-44A7-AEC6-E49BF2CF633A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB0067-B4A5-4832-AAA5-AF79A8DF844F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="1103" windowWidth="9600" windowHeight="7365" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,7 +805,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26"/>
+      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Dropbox\Current\CS799\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEB0067-B4A5-4832-AAA5-AF79A8DF844F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474638E-5950-43BB-846D-66D6D0EFC1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
   <si>
     <t>Name</t>
   </si>
@@ -429,6 +429,75 @@
   </si>
   <si>
     <t>Mincut, Hill-Climbing</t>
+  </si>
+  <si>
+    <t>Bounds Strategyproof Classification</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2325702.2325708</t>
+  </si>
+  <si>
+    <t>Meir, Almagor, Michaely, Rosenschein</t>
+  </si>
+  <si>
+    <t>Best response Regression</t>
+  </si>
+  <si>
+    <t>Ben-Porat, Tennenholtz</t>
+  </si>
+  <si>
+    <t>https://papers.nips.cc/paper/2017/file/1ce927f875864094e3906a4a0b5ece68-Paper.pdf</t>
+  </si>
+  <si>
+    <t>Regression Equilibrium</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/1905.02576.pdf</t>
+  </si>
+  <si>
+    <t>Best linear response</t>
+  </si>
+  <si>
+    <t>Empirical payoff maximization</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Scoring Strategic Agents</t>
+  </si>
+  <si>
+    <t>https://economics.sites.stanford.edu/sites/g/files/sbiybj9386/f/document_0.pdf</t>
+  </si>
+  <si>
+    <t>Signalling</t>
+  </si>
+  <si>
+    <t>Strategically Selected Sample</t>
+  </si>
+  <si>
+    <t>http://proceedings.mlr.press/v97/zhang19c/zhang19c.pdf</t>
+  </si>
+  <si>
+    <t>Zhang, Cheng, Conitzer</t>
+  </si>
+  <si>
+    <t>Randomized Policy</t>
+  </si>
+  <si>
+    <t>Private discrete y</t>
+  </si>
+  <si>
+    <t>Equilibrium</t>
+  </si>
+  <si>
+    <t>Algorithmic Transparency</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2008.09283.pdf</t>
+  </si>
+  <si>
+    <t>Wang, Huang, Jasin, Singh</t>
   </si>
 </sst>
 </file>
@@ -799,13 +868,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFB762-1C7C-4840-8FB5-CF7CC0836E07}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1760,6 +1829,234 @@
         <v>12</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A26" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2011</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2017</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+      <c r="A29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2019</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1789,6 +2086,11 @@
     <hyperlink ref="C23" r:id="rId22" xr:uid="{97D1F830-BC9D-419D-9560-C1D2F96EF243}"/>
     <hyperlink ref="C24" r:id="rId23" xr:uid="{ABBF34A3-458D-4698-B0EA-7D57E866480C}"/>
     <hyperlink ref="C25" r:id="rId24" xr:uid="{E27BA07E-6551-4979-85CE-6AA36441290B}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{ACC0B1A5-2328-4FF9-9328-DDC84AF62C23}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{E51F30F7-D541-4C3B-8195-7FB22106B707}"/>
+    <hyperlink ref="C31" r:id="rId27" xr:uid="{B37A8AF9-1E2D-4962-AFB7-D75E390F8830}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{3E7F471A-46E6-4B6E-99EE-E7E7AFEEDFB2}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{7C0008AC-035A-437A-91BA-6F2246465B37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Dropbox\Current\CS799\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1474638E-5950-43BB-846D-66D6D0EFC1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEB671E-51D2-4966-A44D-002AC72BAD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -874,15 +874,15 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="15.6640625" style="1"/>
+    <col min="1" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -958,7 +958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -996,7 +996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>63</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>74</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>80</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>84</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>89</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>91</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>96</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>100</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>107</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>110</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>113</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>117</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>121</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>124</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>128</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>132</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>135</v>
       </c>
@@ -1908,7 +1908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>138</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>146</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>152</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>143</v>
       </c>

--- a/Paper_List.xlsx
+++ b/Paper_List.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Young Wu\Documents\GitHub\MDML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEB671E-51D2-4966-A44D-002AC72BAD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6013C4B-3001-4CDB-B7B4-D377A05EA92F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
+    <workbookView xWindow="12030" yWindow="2535" windowWidth="14400" windowHeight="10950" activeTab="1" xr2:uid="{E7EE9F80-03A6-4EC3-8DA8-083694855596}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MechanismDesign" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="158">
   <si>
     <t>Name</t>
   </si>
@@ -498,6 +499,15 @@
   </si>
   <si>
     <t>Wang, Huang, Jasin, Singh</t>
+  </si>
+  <si>
+    <t>Kernel Density Classification</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0083665697000469</t>
   </si>
 </sst>
 </file>
@@ -870,11 +880,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BEFB762-1C7C-4840-8FB5-CF7CC0836E07}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2094,4 +2104,143 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4CDED0-5FCF-4F90-BE64-6BF919637D8C}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>